--- a/bots/crawl_ch/output/electronics_2022-09-14.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-09-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,39 +531,41 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6805078</t>
+          <t>6973029</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Varta Premium Light F20</t>
+          <t>Severin Tischgrill PG 8565</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-premium-light-f20/p/6805078</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -572,17 +574,17 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Varta Premium Light F20 39.95 Schweizer Franken</t>
+          <t>Severin Tischgrill PG 8565 50% Aktion 49.95 Schweizer Franken statt 99.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -633,7 +635,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -704,7 +706,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -775,7 +777,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -846,7 +848,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -897,7 +899,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -950,7 +952,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1025,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1098,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1151,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1222,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -1273,24 +1275,24 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6725106</t>
+          <t>3862219</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Braun Dampfbügelstation IS1012BL</t>
+          <t>Varta Active LED Camping Lanterne</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/braun-dampfbuegelstation-is1012bl/p/6725106</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-active-led-camping-lanterne/p/3862219</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1300,12 +1302,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Braun</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>149.00</t>
+          <t>38.50</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1314,34 +1316,34 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Braun Dampfbügelstation IS1012BL 149.00 Schweizer Franken</t>
+          <t>Varta Active LED Camping Lanterne 38.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6995204</t>
+          <t>6725106</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Electrolux AirFryer Range Explore 6</t>
+          <t>Braun Dampfbügelstation IS1012BL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/electrolux-airfryer-range-explore-6/p/6995204</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/braun-dampfbuegelstation-is1012bl/p/6725106</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1351,12 +1353,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Electrolux</t>
+          <t>Braun</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>99.50</t>
+          <t>149.00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1365,34 +1367,34 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Electrolux AirFryer Range Explore 6 50% Aktion 99.50 Schweizer Franken statt 199.00 Schweizer Franken</t>
+          <t>Braun Dampfbügelstation IS1012BL 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6982305</t>
+          <t>6995204</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kenwood Küchenmaschine MultiOne KHH326WH</t>
+          <t>Electrolux AirFryer Range Explore 6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/kenwood-kuechenmaschine-multione-khh326wh/p/6982305</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/electrolux-airfryer-range-explore-6/p/6995204</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1402,12 +1404,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Kenwood</t>
+          <t>Electrolux</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>299.00</t>
+          <t>99.50</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1421,46 +1423,44 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Kenwood Küchenmaschine MultiOne KHH326WH 40% Aktion 299.00 Schweizer Franken statt 499.00 Schweizer Franken</t>
+          <t>Electrolux AirFryer Range Explore 6 50% Aktion 99.50 Schweizer Franken statt 199.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6735643</t>
+          <t>6982305</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
+          <t>Kenwood Küchenmaschine MultiOne KHH326WH</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/kenwood-kuechenmaschine-multione-khh326wh/p/6982305</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Kenwood</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>299.00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1469,49 +1469,51 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Kenwood Küchenmaschine MultiOne KHH326WH 40% Aktion 299.00 Schweizer Franken statt 499.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>6735643</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1520,34 +1522,34 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6689620</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Philips Bügeleisen GC1750/21</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-buegeleisen-gc175021/p/6689620</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1557,12 +1559,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1571,17 +1573,17 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Philips Bügeleisen GC1750/21 50% Aktion 29.95 Schweizer Franken statt 59.90 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1656,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1707,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1758,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1811,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1864,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1915,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1966,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2017,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2070,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2121,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2172,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2225,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
@@ -2294,27 +2296,31 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3862219</t>
+          <t>4589933</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Varta Active LED Camping Lanterne</t>
+          <t>Varta Longlife AAA 4er Bli</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-active-led-camping-lanterne/p/3862219</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
         <v>0</v>
@@ -2326,48 +2332,64 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>38.50</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1.99/1ST</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Varta Active LED Camping Lanterne 38.50 Schweizer Franken</t>
+          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4589933</t>
+          <t>4589935</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli</t>
+          <t>Varta Longlife C 2er Bli</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2381,12 +2403,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>3.48/1ST</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2396,7 +2418,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2406,39 +2428,39 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4589935</t>
+          <t>3494067</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli</t>
+          <t>Varta Longlife Max Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2452,12 +2474,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>3.48/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2467,7 +2489,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2477,88 +2499,17 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>3494067</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power AAA 4er Bli</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Varta</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2.49/1ST</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>2022-09-14 07:15:50</t>
+          <t>2022-09-14 21:00:47</t>
         </is>
       </c>
     </row>
